--- a/Data/PDF Reporting Template.xlsx
+++ b/Data/PDF Reporting Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreatBots\Documents\UiPath\IACET_Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GreatBots\Documents\UiPath\IACET_PerformerPerPage\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Complete PDF Details" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Emails Subject</t>
   </si>
@@ -42,12 +42,6 @@
     <t>IsValidAttachment</t>
   </si>
   <si>
-    <t>IACET</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>FileName</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
   </si>
   <si>
     <t>Response From Customer</t>
-  </si>
-  <si>
-    <t>Total Invalid Pages</t>
   </si>
   <si>
     <t>Invalid Page Number</t>
@@ -140,7 +131,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,11 +426,10 @@
     <col min="5" max="6" width="18.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -447,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -459,43 +449,168 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -506,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -523,56 +638,56 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
